--- a/team_specific_matrix/Stony Brook_B.xlsx
+++ b/team_specific_matrix/Stony Brook_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2149532710280374</v>
+        <v>0.2165354330708661</v>
       </c>
       <c r="C2">
-        <v>0.5280373831775701</v>
+        <v>0.5275590551181102</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009345794392523364</v>
+        <v>0.01181102362204724</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1728971962616822</v>
+        <v>0.1692913385826772</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07476635514018691</v>
+        <v>0.07480314960629922</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03418803418803419</v>
+        <v>0.0364963503649635</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02564102564102564</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7008547008547008</v>
+        <v>0.708029197080292</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2393162393162393</v>
+        <v>0.2335766423357664</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.12</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.48</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4</v>
+        <v>0.3513513513513514</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01764705882352941</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005882352941176471</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04117647058823529</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2705882352941176</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01176470588235294</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1705882352941177</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="R6">
-        <v>0.08823529411764706</v>
+        <v>0.07960199004975124</v>
       </c>
       <c r="S6">
-        <v>0.3941176470588235</v>
+        <v>0.4129353233830846</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.136986301369863</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02054794520547945</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="E7">
-        <v>0.00684931506849315</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="F7">
-        <v>0.0821917808219178</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.136986301369863</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1438356164383562</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="R7">
-        <v>0.0821917808219178</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="S7">
-        <v>0.3904109589041096</v>
+        <v>0.384180790960452</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09295774647887324</v>
+        <v>0.08390022675736962</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01408450704225352</v>
+        <v>0.018140589569161</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03943661971830986</v>
+        <v>0.05215419501133787</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.152112676056338</v>
+        <v>0.1405895691609977</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01408450704225352</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1549295774647887</v>
+        <v>0.1473922902494331</v>
       </c>
       <c r="R8">
-        <v>0.1126760563380282</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="S8">
-        <v>0.4197183098591549</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06790123456790123</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02469135802469136</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05555555555555555</v>
+        <v>0.05365853658536585</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1049382716049383</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01851851851851852</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1296296296296296</v>
+        <v>0.1365853658536585</v>
       </c>
       <c r="R9">
-        <v>0.1234567901234568</v>
+        <v>0.1317073170731707</v>
       </c>
       <c r="S9">
-        <v>0.4753086419753086</v>
+        <v>0.4780487804878049</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09930486593843098</v>
+        <v>0.096</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01290963257199603</v>
+        <v>0.0152</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07745779543197617</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1211519364448858</v>
+        <v>0.1208</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01489572989076465</v>
+        <v>0.0128</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1996027805362463</v>
+        <v>0.2064</v>
       </c>
       <c r="R10">
-        <v>0.1072492552135055</v>
+        <v>0.1056</v>
       </c>
       <c r="S10">
-        <v>0.3674280039721947</v>
+        <v>0.3712</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.12</v>
+        <v>0.1355311355311355</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1022222222222222</v>
+        <v>0.1062271062271062</v>
       </c>
       <c r="K11">
-        <v>0.1644444444444444</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="L11">
-        <v>0.6088888888888889</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004444444444444444</v>
+        <v>0.007326007326007326</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7608695652173914</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1884057971014493</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="K12">
-        <v>0.01449275362318841</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="L12">
-        <v>0.01449275362318841</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02173913043478261</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02515723270440252</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.169811320754717</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="I15">
-        <v>0.03773584905660377</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="J15">
-        <v>0.3962264150943396</v>
+        <v>0.3969072164948453</v>
       </c>
       <c r="K15">
-        <v>0.06918238993710692</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006289308176100629</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0440251572327044</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2515723270440252</v>
+        <v>0.2474226804123711</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04724409448818898</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1417322834645669</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="I16">
-        <v>0.07086614173228346</v>
+        <v>0.07643312101910828</v>
       </c>
       <c r="J16">
-        <v>0.4173228346456693</v>
+        <v>0.4076433121019108</v>
       </c>
       <c r="K16">
-        <v>0.09448818897637795</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01574803149606299</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05511811023622047</v>
+        <v>0.05732484076433121</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1574803149606299</v>
+        <v>0.1528662420382166</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01538461538461539</v>
+        <v>0.009876543209876543</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2123076923076923</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="I17">
-        <v>0.08307692307692308</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="J17">
-        <v>0.4092307692307692</v>
+        <v>0.4049382716049383</v>
       </c>
       <c r="K17">
-        <v>0.09538461538461539</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02769230769230769</v>
+        <v>0.03209876543209877</v>
       </c>
       <c r="N17">
-        <v>0.003076923076923077</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="O17">
-        <v>0.05538461538461539</v>
+        <v>0.06419753086419754</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09846153846153846</v>
+        <v>0.1037037037037037</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01030927835051546</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2628865979381443</v>
+        <v>0.242798353909465</v>
       </c>
       <c r="I18">
-        <v>0.1082474226804124</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="J18">
-        <v>0.3350515463917526</v>
+        <v>0.3662551440329218</v>
       </c>
       <c r="K18">
-        <v>0.1082474226804124</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01030927835051546</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07731958762886598</v>
+        <v>0.06995884773662552</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08762886597938144</v>
+        <v>0.09053497942386832</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01013171225937183</v>
+        <v>0.009685230024213076</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1955420466058764</v>
+        <v>0.2025827280064568</v>
       </c>
       <c r="I19">
-        <v>0.09929078014184398</v>
+        <v>0.09927360774818401</v>
       </c>
       <c r="J19">
-        <v>0.3829787234042553</v>
+        <v>0.384180790960452</v>
       </c>
       <c r="K19">
-        <v>0.1094224924012158</v>
+        <v>0.1008878127522195</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01519756838905775</v>
+        <v>0.01452784503631961</v>
       </c>
       <c r="N19">
-        <v>0.001013171225937183</v>
+        <v>0.0008071025020177562</v>
       </c>
       <c r="O19">
-        <v>0.07092198581560284</v>
+        <v>0.06698950766747377</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1155015197568389</v>
+        <v>0.1210653753026634</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Stony Brook_B.xlsx
+++ b/team_specific_matrix/Stony Brook_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2165354330708661</v>
+        <v>0.2152777777777778</v>
       </c>
       <c r="C2">
-        <v>0.5275590551181102</v>
+        <v>0.5243055555555556</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01181102362204724</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.003472222222222222</v>
       </c>
       <c r="P2">
-        <v>0.1692913385826772</v>
+        <v>0.1701388888888889</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07480314960629922</v>
+        <v>0.07291666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="C3">
-        <v>0.0364963503649635</v>
+        <v>0.04458598726114649</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0218978102189781</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.708029197080292</v>
+        <v>0.7070063694267515</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2335766423357664</v>
+        <v>0.2165605095541401</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08108108108108109</v>
+        <v>0.075</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5675675675675675</v>
+        <v>0.55</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3513513513513514</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03482587064676617</v>
+        <v>0.03139013452914798</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009950248756218905</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03482587064676617</v>
+        <v>0.04035874439461883</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2686567164179104</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009950248756218905</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1492537313432836</v>
+        <v>0.1434977578475336</v>
       </c>
       <c r="R6">
-        <v>0.07960199004975124</v>
+        <v>0.07623318385650224</v>
       </c>
       <c r="S6">
-        <v>0.4129353233830846</v>
+        <v>0.42152466367713</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1355932203389831</v>
+        <v>0.135</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02259887005649718</v>
+        <v>0.025</v>
       </c>
       <c r="E7">
-        <v>0.005649717514124294</v>
+        <v>0.005</v>
       </c>
       <c r="F7">
-        <v>0.07909604519774012</v>
+        <v>0.075</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1355932203389831</v>
+        <v>0.14</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1525423728813559</v>
+        <v>0.155</v>
       </c>
       <c r="R7">
-        <v>0.0847457627118644</v>
+        <v>0.08</v>
       </c>
       <c r="S7">
-        <v>0.384180790960452</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08390022675736962</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.018140589569161</v>
+        <v>0.016</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05215419501133787</v>
+        <v>0.052</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1405895691609977</v>
+        <v>0.138</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01360544217687075</v>
+        <v>0.014</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1473922902494331</v>
+        <v>0.162</v>
       </c>
       <c r="R8">
-        <v>0.1156462585034014</v>
+        <v>0.114</v>
       </c>
       <c r="S8">
-        <v>0.4285714285714285</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05853658536585366</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02439024390243903</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05365853658536585</v>
+        <v>0.04867256637168142</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1024390243902439</v>
+        <v>0.1017699115044248</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01463414634146342</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1365853658536585</v>
+        <v>0.1327433628318584</v>
       </c>
       <c r="R9">
-        <v>0.1317073170731707</v>
+        <v>0.1238938053097345</v>
       </c>
       <c r="S9">
-        <v>0.4780487804878049</v>
+        <v>0.4823008849557522</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.096</v>
+        <v>0.0963768115942029</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0152</v>
+        <v>0.01376811594202899</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07199999999999999</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1208</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0128</v>
+        <v>0.01231884057971015</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2064</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="R10">
-        <v>0.1056</v>
+        <v>0.1021739130434783</v>
       </c>
       <c r="S10">
-        <v>0.3712</v>
+        <v>0.3731884057971014</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1355311355311355</v>
+        <v>0.1291390728476821</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1062271062271062</v>
+        <v>0.09933774834437085</v>
       </c>
       <c r="K11">
-        <v>0.1868131868131868</v>
+        <v>0.1821192052980132</v>
       </c>
       <c r="L11">
-        <v>0.5641025641025641</v>
+        <v>0.5827814569536424</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007326007326007326</v>
+        <v>0.006622516556291391</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7624309392265194</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1923076923076923</v>
+        <v>0.1712707182320442</v>
       </c>
       <c r="K12">
-        <v>0.01282051282051282</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="L12">
-        <v>0.01923076923076923</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02564102564102564</v>
+        <v>0.03314917127071823</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7894736842105263</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1842105263157895</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02631578947368421</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02577319587628866</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1649484536082474</v>
+        <v>0.1643192488262911</v>
       </c>
       <c r="I15">
-        <v>0.05154639175257732</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="J15">
-        <v>0.3969072164948453</v>
+        <v>0.3943661971830986</v>
       </c>
       <c r="K15">
-        <v>0.06185567010309279</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01030927835051546</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04123711340206185</v>
+        <v>0.03755868544600939</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2474226804123711</v>
+        <v>0.2582159624413146</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03821656050955414</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1528662420382166</v>
+        <v>0.1468926553672316</v>
       </c>
       <c r="I16">
-        <v>0.07643312101910828</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="J16">
-        <v>0.4076433121019108</v>
+        <v>0.4124293785310734</v>
       </c>
       <c r="K16">
-        <v>0.09554140127388536</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01910828025477707</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05732484076433121</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1528662420382166</v>
+        <v>0.1525423728813559</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009876543209876543</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1975308641975309</v>
+        <v>0.1995614035087719</v>
       </c>
       <c r="I17">
-        <v>0.08888888888888889</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="J17">
-        <v>0.4049382716049383</v>
+        <v>0.412280701754386</v>
       </c>
       <c r="K17">
-        <v>0.0962962962962963</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03209876543209877</v>
+        <v>0.02850877192982456</v>
       </c>
       <c r="N17">
-        <v>0.002469135802469136</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="O17">
-        <v>0.06419753086419754</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1037037037037037</v>
+        <v>0.09868421052631579</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01234567901234568</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.242798353909465</v>
+        <v>0.2452107279693486</v>
       </c>
       <c r="I18">
-        <v>0.09465020576131687</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="J18">
-        <v>0.3662551440329218</v>
+        <v>0.3754789272030651</v>
       </c>
       <c r="K18">
-        <v>0.1111111111111111</v>
+        <v>0.10727969348659</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01234567901234568</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06995884773662552</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09053497942386832</v>
+        <v>0.08812260536398467</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009685230024213076</v>
+        <v>0.00948905109489051</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2025827280064568</v>
+        <v>0.210948905109489</v>
       </c>
       <c r="I19">
-        <v>0.09927360774818401</v>
+        <v>0.09854014598540146</v>
       </c>
       <c r="J19">
-        <v>0.384180790960452</v>
+        <v>0.381021897810219</v>
       </c>
       <c r="K19">
-        <v>0.1008878127522195</v>
+        <v>0.1014598540145985</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01452784503631961</v>
+        <v>0.01532846715328467</v>
       </c>
       <c r="N19">
-        <v>0.0008071025020177562</v>
+        <v>0.00145985401459854</v>
       </c>
       <c r="O19">
-        <v>0.06698950766747377</v>
+        <v>0.06569343065693431</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1210653753026634</v>
+        <v>0.1160583941605839</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Stony Brook_B.xlsx
+++ b/team_specific_matrix/Stony Brook_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2152777777777778</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C2">
-        <v>0.5243055555555556</v>
+        <v>0.5183946488294314</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01388888888888889</v>
+        <v>0.01672240802675585</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003472222222222222</v>
+        <v>0.003344481605351171</v>
       </c>
       <c r="P2">
-        <v>0.1701388888888889</v>
+        <v>0.1705685618729097</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07291666666666667</v>
+        <v>0.07357859531772576</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01273885350318471</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="C3">
-        <v>0.04458598726114649</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01910828025477707</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7070063694267515</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2165605095541401</v>
+        <v>0.2111801242236025</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.55</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.375</v>
+        <v>0.4047619047619048</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03139013452914798</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01345291479820628</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04035874439461883</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2600896860986547</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01345291479820628</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1434977578475336</v>
+        <v>0.1471861471861472</v>
       </c>
       <c r="R6">
-        <v>0.07623318385650224</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="S6">
-        <v>0.42152466367713</v>
+        <v>0.4112554112554113</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.135</v>
+        <v>0.1365853658536585</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E7">
-        <v>0.005</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="F7">
-        <v>0.075</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.14</v>
+        <v>0.1365853658536585</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.155</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="R7">
-        <v>0.08</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="S7">
-        <v>0.385</v>
+        <v>0.375609756097561</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08400000000000001</v>
+        <v>0.08527131782945736</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.016</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.052</v>
+        <v>0.05232558139534884</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.138</v>
+        <v>0.1375968992248062</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.014</v>
+        <v>0.01356589147286822</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.162</v>
+        <v>0.1608527131782946</v>
       </c>
       <c r="R8">
-        <v>0.114</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="S8">
-        <v>0.42</v>
+        <v>0.4186046511627907</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07079646017699115</v>
+        <v>0.06866952789699571</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02654867256637168</v>
+        <v>0.02575107296137339</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04867256637168142</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1017699115044248</v>
+        <v>0.1030042918454936</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01327433628318584</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1327433628318584</v>
+        <v>0.1416309012875537</v>
       </c>
       <c r="R9">
-        <v>0.1238938053097345</v>
+        <v>0.1201716738197425</v>
       </c>
       <c r="S9">
-        <v>0.4823008849557522</v>
+        <v>0.48068669527897</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0963768115942029</v>
+        <v>0.09567039106145252</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01376811594202899</v>
+        <v>0.01466480446927374</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07391304347826087</v>
+        <v>0.07402234636871509</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1217391304347826</v>
+        <v>0.1222067039106145</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01231884057971015</v>
+        <v>0.01256983240223464</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2065217391304348</v>
+        <v>0.2074022346368715</v>
       </c>
       <c r="R10">
-        <v>0.1021739130434783</v>
+        <v>0.1005586592178771</v>
       </c>
       <c r="S10">
-        <v>0.3731884057971014</v>
+        <v>0.3729050279329609</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1291390728476821</v>
+        <v>0.1326860841423948</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09933774834437085</v>
+        <v>0.1003236245954693</v>
       </c>
       <c r="K11">
-        <v>0.1821192052980132</v>
+        <v>0.1877022653721683</v>
       </c>
       <c r="L11">
-        <v>0.5827814569536424</v>
+        <v>0.5728155339805825</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006622516556291391</v>
+        <v>0.006472491909385114</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7624309392265194</v>
+        <v>0.7637362637362637</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1712707182320442</v>
+        <v>0.1703296703296703</v>
       </c>
       <c r="K12">
-        <v>0.01104972375690608</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="L12">
-        <v>0.02209944751381215</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03314917127071823</v>
+        <v>0.03296703296703297</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7804878048780488</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1951219512195122</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02816901408450704</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1643192488262911</v>
+        <v>0.167420814479638</v>
       </c>
       <c r="I15">
-        <v>0.04694835680751173</v>
+        <v>0.04524886877828054</v>
       </c>
       <c r="J15">
-        <v>0.3943661971830986</v>
+        <v>0.3981900452488688</v>
       </c>
       <c r="K15">
-        <v>0.06103286384976526</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009389671361502348</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03755868544600939</v>
+        <v>0.03619909502262444</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2582159624413146</v>
+        <v>0.2579185520361991</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03389830508474576</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1468926553672316</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I16">
-        <v>0.0847457627118644</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="J16">
-        <v>0.4124293785310734</v>
+        <v>0.4120879120879121</v>
       </c>
       <c r="K16">
-        <v>0.1016949152542373</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01694915254237288</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05084745762711865</v>
+        <v>0.04945054945054945</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1525423728813559</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008771929824561403</v>
+        <v>0.0104384133611691</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1995614035087719</v>
+        <v>0.1920668058455115</v>
       </c>
       <c r="I17">
-        <v>0.08771929824561403</v>
+        <v>0.08977035490605428</v>
       </c>
       <c r="J17">
-        <v>0.412280701754386</v>
+        <v>0.4154488517745303</v>
       </c>
       <c r="K17">
-        <v>0.09649122807017543</v>
+        <v>0.09603340292275574</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02850877192982456</v>
+        <v>0.02713987473903967</v>
       </c>
       <c r="N17">
-        <v>0.002192982456140351</v>
+        <v>0.00208768267223382</v>
       </c>
       <c r="O17">
-        <v>0.06578947368421052</v>
+        <v>0.06889352818371608</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09868421052631579</v>
+        <v>0.09812108559498957</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01149425287356322</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2452107279693486</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="I18">
-        <v>0.09195402298850575</v>
+        <v>0.09328358208955224</v>
       </c>
       <c r="J18">
-        <v>0.3754789272030651</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="K18">
-        <v>0.10727969348659</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01149425287356322</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06896551724137931</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08812260536398467</v>
+        <v>0.08582089552238806</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00948905109489051</v>
+        <v>0.009206798866855524</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.210948905109489</v>
+        <v>0.2110481586402266</v>
       </c>
       <c r="I19">
-        <v>0.09854014598540146</v>
+        <v>0.09702549575070822</v>
       </c>
       <c r="J19">
-        <v>0.381021897810219</v>
+        <v>0.3838526912181303</v>
       </c>
       <c r="K19">
-        <v>0.1014598540145985</v>
+        <v>0.09985835694050992</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01532846715328467</v>
+        <v>0.01558073654390935</v>
       </c>
       <c r="N19">
-        <v>0.00145985401459854</v>
+        <v>0.00141643059490085</v>
       </c>
       <c r="O19">
-        <v>0.06569343065693431</v>
+        <v>0.06586402266288952</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1160583941605839</v>
+        <v>0.1161473087818697</v>
       </c>
     </row>
   </sheetData>
